--- a/Plantilla VIsitas_TEK.xlsx
+++ b/Plantilla VIsitas_TEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E22B997-F6ED-4757-945E-282B9DF28D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423EEAE-0756-4A6B-A038-D1A22E41DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
@@ -811,7 +811,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="14">
-        <v>46007</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="14">
-        <v>46007</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="14">
-        <v>46007</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="14">
-        <v>46007</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Plantilla VIsitas_TEK.xlsx
+++ b/Plantilla VIsitas_TEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423EEAE-0756-4A6B-A038-D1A22E41DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3351E-5351-415E-8BFF-360A80C0C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Nombres</t>
   </si>
@@ -143,12 +143,45 @@
   <si>
     <t>Ingreso de vehiculos</t>
   </si>
+  <si>
+    <t xml:space="preserve">Patricio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osvaldo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrasco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quezada </t>
+  </si>
+  <si>
+    <t>15727383-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14010414-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12130273-K </t>
+  </si>
+  <si>
+    <t>KRGC-47</t>
+  </si>
+  <si>
+    <t>RKRD-61</t>
+  </si>
+  <si>
+    <t>KRGC-48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +267,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -437,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,6 +513,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,7 +851,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I5" sqref="I5:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +927,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="14">
-        <v>46009</v>
+        <v>46010</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -913,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="14">
-        <v>46009</v>
+        <v>46010</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -937,7 +977,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="14">
-        <v>46009</v>
+        <v>46010</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -961,38 +1001,86 @@
         <v>25</v>
       </c>
       <c r="I7" s="14">
-        <v>46009</v>
+        <v>46010</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="14">
+        <v>46010</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="17"/>
+      <c r="B9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14">
+        <v>46010</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="17"/>
+      <c r="B10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="14">
+        <v>46010</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Plantilla VIsitas_TEK.xlsx
+++ b/Plantilla VIsitas_TEK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3351E-5351-415E-8BFF-360A80C0C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982CD20-F8B5-47BD-A13A-3D50852042E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Nombres</t>
   </si>
@@ -57,23 +57,6 @@
   </si>
   <si>
     <t>Fecha de ingreso</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RUT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Ingresar sin "." y con digito verificador)</t>
-    </r>
   </si>
   <si>
     <t>12678459-7</t>
@@ -144,44 +127,24 @@
     <t>Ingreso de vehiculos</t>
   </si>
   <si>
-    <t xml:space="preserve">Patricio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osvaldo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrasco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quezada </t>
-  </si>
-  <si>
-    <t>15727383-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14010414-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12130273-K </t>
-  </si>
-  <si>
-    <t>KRGC-47</t>
-  </si>
-  <si>
-    <t>RKRD-61</t>
-  </si>
-  <si>
-    <t>KRGC-48</t>
+    <t xml:space="preserve">Héctor </t>
+  </si>
+  <si>
+    <t>Tallaedo</t>
+  </si>
+  <si>
+    <t>RUT
+(Ingresar sin "" y con digito verificador)</t>
+  </si>
+  <si>
+    <t>22309814-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,14 +163,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -476,11 +431,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,20 +455,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,7 +809,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +826,7 @@
     <row r="1" spans="2:10" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -886,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>2</v>
@@ -906,181 +864,143 @@
     </row>
     <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" s="14">
-        <v>46010</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" s="14">
-        <v>46010</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="14">
-        <v>46010</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="14">
+        <v>46013</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="14">
-        <v>46010</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>31</v>
+      <c r="D8" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="14">
-        <v>46010</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="14">
-        <v>46010</v>
-      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="14">
-        <v>46010</v>
-      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1108,7 +1028,6 @@
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="22"/>
       <c r="G13" s="1"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -1118,12 +1037,12 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="EkCx7wT5WC4Nz0I2oDsJ/yBw0JoCKZCnlypetQ8HF3l5m0ErT2z64XgTXDMm9vjp7sDORBKCHaYOjw2FY8AK0w==" saltValue="7pgzuYyuNxigMkkSRNYTrw==" spinCount="100000" sqref="B4:I13" name="Visitantes" securityDescriptor="O:WDG:WDD:(A;;CC;;;S-1-5-21-2853796793-2122813675-1182546805-501)"/>
+    <protectedRange algorithmName="SHA-512" hashValue="EkCx7wT5WC4Nz0I2oDsJ/yBw0JoCKZCnlypetQ8HF3l5m0ErT2z64XgTXDMm9vjp7sDORBKCHaYOjw2FY8AK0w==" saltValue="7pgzuYyuNxigMkkSRNYTrw==" spinCount="100000" sqref="F4:F12 B4:E13 G4:I13" name="Visitantes" securityDescriptor="O:WDG:WDD:(A;;CC;;;S-1-5-21-2853796793-2122813675-1182546805-501)"/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plantilla VIsitas_TEK.xlsx
+++ b/Plantilla VIsitas_TEK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982CD20-F8B5-47BD-A13A-3D50852042E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E63BDB-3AA8-41D9-965B-D66610E45004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -436,15 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,6 +463,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +809,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,40 +825,40 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -872,20 +872,20 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14">
-        <v>46013</v>
+      <c r="I4" s="11">
+        <v>46017</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -898,20 +898,20 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="14">
-        <v>46013</v>
+      <c r="I5" s="11">
+        <v>46017</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -924,18 +924,18 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14">
-        <v>46013</v>
+      <c r="I6" s="11">
+        <v>46017</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -948,89 +948,89 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="14">
-        <v>46013</v>
+      <c r="I7" s="11">
+        <v>46017</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="15"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>

--- a/Plantilla VIsitas_TEK.xlsx
+++ b/Plantilla VIsitas_TEK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E63BDB-3AA8-41D9-965B-D66610E45004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE6567-5FE8-4733-8020-B968A784D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Nombres</t>
   </si>
@@ -62,9 +62,6 @@
     <t>12678459-7</t>
   </si>
   <si>
-    <t>16317063-9</t>
-  </si>
-  <si>
     <t>Chofer</t>
   </si>
   <si>
@@ -80,16 +77,7 @@
     <t>Urrea</t>
   </si>
   <si>
-    <t>Millán</t>
-  </si>
-  <si>
-    <t>Montaño</t>
-  </si>
-  <si>
     <t>Serrano</t>
-  </si>
-  <si>
-    <t>26073334-6</t>
   </si>
   <si>
     <r>
@@ -112,19 +100,10 @@
     <t xml:space="preserve">Cristian </t>
   </si>
   <si>
-    <t xml:space="preserve">Luis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeison </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gonzalo </t>
   </si>
   <si>
     <t>TEK</t>
-  </si>
-  <si>
-    <t>Ingreso de vehiculos</t>
   </si>
   <si>
     <t xml:space="preserve">Héctor </t>
@@ -138,13 +117,37 @@
   </si>
   <si>
     <t>22309814-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Miranda </t>
+  </si>
+  <si>
+    <t>Romina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garay Totin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13441818-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16546829-5 </t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>Instalaicon PCI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +231,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -431,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +472,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DC3DC6-3BF9-449C-B46F-7532405985E8}">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I5" sqref="I5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,16 +835,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:10" ht="51" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
@@ -844,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -864,78 +874,78 @@
     </row>
     <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H4" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I4" s="11">
-        <v>46017</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5" s="11">
-        <v>46017</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I6" s="11">
-        <v>46017</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -943,106 +953,91 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="G7" s="23"/>
       <c r="H7" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I7" s="11">
-        <v>46017</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="11">
+        <v>46052</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="EkCx7wT5WC4Nz0I2oDsJ/yBw0JoCKZCnlypetQ8HF3l5m0ErT2z64XgTXDMm9vjp7sDORBKCHaYOjw2FY8AK0w==" saltValue="7pgzuYyuNxigMkkSRNYTrw==" spinCount="100000" sqref="F4:F12 B4:E13 G4:I13" name="Visitantes" securityDescriptor="O:WDG:WDD:(A;;CC;;;S-1-5-21-2853796793-2122813675-1182546805-501)"/>
+    <protectedRange algorithmName="SHA-512" hashValue="EkCx7wT5WC4Nz0I2oDsJ/yBw0JoCKZCnlypetQ8HF3l5m0ErT2z64XgTXDMm9vjp7sDORBKCHaYOjw2FY8AK0w==" saltValue="7pgzuYyuNxigMkkSRNYTrw==" spinCount="100000" sqref="B4:I4 B5:E11 F5:F10 G5:I11" name="Visitantes" securityDescriptor="O:WDG:WDD:(A;;CC;;;S-1-5-21-2853796793-2122813675-1182546805-501)"/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>